--- a/tests/data/not_numeric.xlsx
+++ b/tests/data/not_numeric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WinUser\PycharmProjects\abc_test\pyAnalysis\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BEE30-B47E-478E-A2DE-871F76593BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB340A15-1DAF-4061-B616-FE07D3C59630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>код
- идентификатор
- PLU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>наименование анализируемых позиций</t>
   </si>
@@ -56,7 +51,7 @@
     <t>fd</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t>код идентификатор PLU</t>
   </si>
 </sst>
 </file>
@@ -394,25 +389,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -420,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>100</v>
@@ -431,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
